--- a/Banco Central/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/Banco Central/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>Serie</t>
   </si>
@@ -467,6 +467,15 @@
   </si>
   <si>
     <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
   </si>
 </sst>
 </file>
@@ -824,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4165,6 +4174,75 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146">
+        <v>1000000</v>
+      </c>
+      <c r="C146">
+        <v>1295000</v>
+      </c>
+      <c r="D146">
+        <v>1295000</v>
+      </c>
+      <c r="E146">
+        <v>835000</v>
+      </c>
+      <c r="F146">
+        <v>460000</v>
+      </c>
+      <c r="G146">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147">
+        <v>900000</v>
+      </c>
+      <c r="C147">
+        <v>2094000</v>
+      </c>
+      <c r="D147">
+        <v>1350000</v>
+      </c>
+      <c r="E147">
+        <v>971000</v>
+      </c>
+      <c r="F147">
+        <v>379000</v>
+      </c>
+      <c r="G147">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148">
+        <v>1200000</v>
+      </c>
+      <c r="C148">
+        <v>2015000</v>
+      </c>
+      <c r="D148">
+        <v>1560000</v>
+      </c>
+      <c r="E148">
+        <v>905000</v>
+      </c>
+      <c r="F148">
+        <v>655000</v>
+      </c>
+      <c r="G148">
+        <v>0.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/Banco Central/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Serie</t>
   </si>
@@ -476,6 +476,12 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
   </si>
 </sst>
 </file>
@@ -833,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4243,6 +4249,52 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149">
+        <v>1200000</v>
+      </c>
+      <c r="C149">
+        <v>1694000</v>
+      </c>
+      <c r="D149">
+        <v>1440000</v>
+      </c>
+      <c r="E149">
+        <v>834000</v>
+      </c>
+      <c r="F149">
+        <v>606000</v>
+      </c>
+      <c r="G149">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150">
+        <v>800000</v>
+      </c>
+      <c r="C150">
+        <v>1112000</v>
+      </c>
+      <c r="D150">
+        <v>960000</v>
+      </c>
+      <c r="E150">
+        <v>749000</v>
+      </c>
+      <c r="F150">
+        <v>211000</v>
+      </c>
+      <c r="G150">
+        <v>0.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
